--- a/examples/example.xlsx
+++ b/examples/example.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC5901-27EF-4930-9105-13DAA67F19AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5DA9D-1D94-4BB7-A711-781521843559}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="2310" windowWidth="21060" windowHeight="11265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="2310" windowWidth="21060" windowHeight="11265" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="設問設定" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +33,9 @@
     <t>Q2</t>
   </si>
   <si>
+    <t>Q3</t>
+  </si>
+  <si>
     <t>設問名</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t>S</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>該当</t>
   </si>
   <si>
@@ -54,21 +60,33 @@
     <t>x</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
+    <t>q</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
     <t>z</t>
   </si>
   <si>
+    <t>r</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>表頭</t>
   </si>
   <si>
@@ -88,6 +106,15 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
   </si>
 </sst>
 </file>
@@ -711,9 +738,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -721,7 +748,7 @@
     <col min="2" max="1025" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,10 +758,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -742,95 +772,113 @@
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>10</v>
       </c>
@@ -844,9 +892,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK3"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -858,7 +908,7 @@
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -866,10 +916,10 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -883,16 +933,24 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -908,9 +966,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -918,7 +976,7 @@
     <col min="2" max="1025" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -928,10 +986,13 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>1</v>
@@ -939,8 +1000,11 @@
       <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -950,8 +1014,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -961,8 +1028,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -972,8 +1042,11 @@
       <c r="C5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>4</v>
       </c>
@@ -983,8 +1056,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="15">
         <v>5</v>
       </c>
@@ -994,8 +1070,11 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="15">
         <v>6</v>
       </c>
@@ -1005,8 +1084,11 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="15">
         <v>7</v>
       </c>
@@ -1016,8 +1098,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>8</v>
       </c>
@@ -1026,6 +1111,9 @@
       </c>
       <c r="C10">
         <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
